--- a/Reports/all/test1 - Copy/x1 - Copy (2)/日本語 - Copy (4).xlsx
+++ b/Reports/all/test1 - Copy/x1 - Copy (2)/日本語 - Copy (4).xlsx
@@ -102,7 +102,7 @@
     <t>10/19/21 09:05:54</t>
   </si>
   <si>
-    <t>78dfae713dec5d8a6c29db7a00c05f78f7374833</t>
+    <t>9aab3dc8d85d47b1496932e6ff3b813d559e91c6</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -111,7 +111,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">Merge branch 'main' of https://github.com/hung-logigear/TestManagementSolution into main
+    <t xml:space="preserve">500-2
 </t>
   </si>
   <si>
@@ -670,13 +670,13 @@
         <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.51804398148</v>
+        <v>44907.518738425926</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/all/test1 - Copy/x1 - Copy (2)/日本語 - Copy (4).xlsx
+++ b/Reports/all/test1 - Copy/x1 - Copy (2)/日本語 - Copy (4).xlsx
@@ -102,7 +102,7 @@
     <t>10/19/21 09:05:54</t>
   </si>
   <si>
-    <t>9aab3dc8d85d47b1496932e6ff3b813d559e91c6</t>
+    <t>fc3308e7f88aeca6ef1c13c8b978495b9daf67b0</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -111,7 +111,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">500-2
+    <t xml:space="preserve">500-3
 </t>
   </si>
   <si>
@@ -676,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.518738425926</v>
+        <v>44907.51943287037</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/all/test1 - Copy/x1 - Copy (2)/日本語 - Copy (4).xlsx
+++ b/Reports/all/test1 - Copy/x1 - Copy (2)/日本語 - Copy (4).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -87,7 +87,7 @@
     <t>007</t>
   </si>
   <si>
-    <t>sxlsghubnkvzkoolvsyu</t>
+    <t>flujvdcgzpgtlzatumsk</t>
   </si>
   <si>
     <t>Check if application is available on phone</t>
@@ -102,7 +102,10 @@
     <t>10/19/21 09:05:54</t>
   </si>
   <si>
-    <t>fc3308e7f88aeca6ef1c13c8b978495b9daf67b0</t>
+    <t>10/19/21 09:25:50</t>
+  </si>
+  <si>
+    <t>e714989f26e3f92f7078d247eaba26abf59a1741</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -111,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">500-3
+    <t xml:space="preserve">500-4
 </t>
   </si>
   <si>
@@ -628,13 +631,13 @@
         <v>15</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -642,19 +645,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -676,13 +679,13 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.51943287037</v>
+        <v>44907.52012731481</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">

--- a/Reports/all/test1 - Copy/x1 - Copy (2)/日本語 - Copy (4).xlsx
+++ b/Reports/all/test1 - Copy/x1 - Copy (2)/日本語 - Copy (4).xlsx
@@ -105,7 +105,7 @@
     <t>10/19/21 09:25:50</t>
   </si>
   <si>
-    <t>e714989f26e3f92f7078d247eaba26abf59a1741</t>
+    <t>16af5460197532f2cc991174b0231145f2149a52</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -114,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">500-4
+    <t xml:space="preserve">500-5
 </t>
   </si>
   <si>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.52012731481</v>
+        <v>44907.52082175926</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/all/test1 - Copy/x1 - Copy (2)/日本語 - Copy (4).xlsx
+++ b/Reports/all/test1 - Copy/x1 - Copy (2)/日本語 - Copy (4).xlsx
@@ -105,7 +105,7 @@
     <t>10/19/21 09:25:50</t>
   </si>
   <si>
-    <t>16af5460197532f2cc991174b0231145f2149a52</t>
+    <t>a245c00935168efd23f4b1e65af4313678c84d2d</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -114,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">500-5
+    <t xml:space="preserve">500-6
 </t>
   </si>
   <si>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.52082175926</v>
+        <v>44907.521516203706</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/all/test1 - Copy/x1 - Copy (2)/日本語 - Copy (4).xlsx
+++ b/Reports/all/test1 - Copy/x1 - Copy (2)/日本語 - Copy (4).xlsx
@@ -105,7 +105,7 @@
     <t>10/19/21 09:25:50</t>
   </si>
   <si>
-    <t>a245c00935168efd23f4b1e65af4313678c84d2d</t>
+    <t>91ce85d64919b4bbc6c6e6628bf3771c738d5c61</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -114,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">500-6
+    <t xml:space="preserve">500-7
 </t>
   </si>
   <si>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.521516203706</v>
+        <v>44907.522210648145</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/all/test1 - Copy/x1 - Copy (2)/日本語 - Copy (4).xlsx
+++ b/Reports/all/test1 - Copy/x1 - Copy (2)/日本語 - Copy (4).xlsx
@@ -105,7 +105,7 @@
     <t>10/19/21 09:25:50</t>
   </si>
   <si>
-    <t>91ce85d64919b4bbc6c6e6628bf3771c738d5c61</t>
+    <t>88d8ce24d55b2647fd486f292eb4be4b0a6a39aa</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -114,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">500-7
+    <t xml:space="preserve">500-8
 </t>
   </si>
   <si>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.522210648145</v>
+        <v>44907.52290509259</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/all/test1 - Copy/x1 - Copy (2)/日本語 - Copy (4).xlsx
+++ b/Reports/all/test1 - Copy/x1 - Copy (2)/日本語 - Copy (4).xlsx
@@ -105,7 +105,7 @@
     <t>10/19/21 09:25:50</t>
   </si>
   <si>
-    <t>88d8ce24d55b2647fd486f292eb4be4b0a6a39aa</t>
+    <t>7422cdd91690613fbdff59f1c540a53045fa65a6</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -114,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">500-8
+    <t xml:space="preserve">500-9
 </t>
   </si>
   <si>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.52290509259</v>
+        <v>44907.52359953704</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/all/test1 - Copy/x1 - Copy (2)/日本語 - Copy (4).xlsx
+++ b/Reports/all/test1 - Copy/x1 - Copy (2)/日本語 - Copy (4).xlsx
@@ -105,7 +105,7 @@
     <t>10/19/21 09:25:50</t>
   </si>
   <si>
-    <t>7422cdd91690613fbdff59f1c540a53045fa65a6</t>
+    <t>0225bb46e27aaaa20cd9dfa90721dcc37be104a3</t>
   </si>
   <si>
     <t>Flash ROM X5</t>
@@ -114,7 +114,7 @@
     <t>Restarttt done</t>
   </si>
   <si>
-    <t xml:space="preserve">500-9
+    <t xml:space="preserve">500 10
 </t>
   </si>
   <si>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44907.52359953704</v>
+        <v>44907.52429398148</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
